--- a/biology/Zoologie/Helminthophis_frontalis/Helminthophis_frontalis.xlsx
+++ b/biology/Zoologie/Helminthophis_frontalis/Helminthophis_frontalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Helminthophis frontalis est une espèce de serpents de la famille des Anomalepididae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helminthophis frontalis est une espèce de serpents de la famille des Anomalepididae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Panama et au Costa Rica[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Panama et au Costa Rica.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1860 : Drei neue Schlangen des k. zoologischen Museums aus America und Bemerkungen über die generelle Unterscheidung von anderen bereits bekannten Arten. Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1860, p. 517-521 (texte intégral).</t>
         </is>
